--- a/РПИ/лаба 3/YouTube.xlsx
+++ b/РПИ/лаба 3/YouTube.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\morim\Desktop\Для пугу\РПИ\лаба 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5D6AC53-48A4-4FE3-B2B9-4DF38718682B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02C0190-3DD1-4394-A2B5-267A803D1E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,12 +176,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -190,10 +205,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,274 +507,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>38</v>
       </c>
     </row>
